--- a/data/trans_dic/P42C_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Dificultad-trans_dic.xlsx
@@ -590,7 +590,7 @@
         <v>0.06356310999390351</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1023380869023022</v>
+        <v>0.1023380869023023</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1467744897504171</v>
+        <v>0.1463623765317666</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04823846558189421</v>
+        <v>0.04974918196676392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07812675720807866</v>
+        <v>0.076578579080535</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2019493109888127</v>
+        <v>0.2013582585752758</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08016634237453536</v>
+        <v>0.0832098519144107</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.136827763849902</v>
+        <v>0.1357386614484595</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1973927492085476</v>
+        <v>0.196962106018865</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1310544574730362</v>
+        <v>0.132303136147104</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1328804832333158</v>
+        <v>0.1329509453362868</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2606590626241568</v>
+        <v>0.2551081006326747</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1832467727057693</v>
+        <v>0.1859217528819515</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1875987139999054</v>
+        <v>0.1855775773633759</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.1880789820034439</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2558242406443564</v>
+        <v>0.2558242406443565</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2353068415581738</v>
+        <v>0.2314423701023513</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1601560399472295</v>
+        <v>0.156873095540372</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2273162061566275</v>
+        <v>0.2269030425469863</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3045647867199205</v>
+        <v>0.3080731541775283</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2205984510777101</v>
+        <v>0.22069356667409</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2882529808893644</v>
+        <v>0.2878239653207887</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3177810672192103</v>
+        <v>0.3271685550809747</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2736437758009875</v>
+        <v>0.2703545994714301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3840930182139499</v>
+        <v>0.3808587820736212</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4244725772717298</v>
+        <v>0.4295869387602557</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3758154952710938</v>
+        <v>0.3713780100420422</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4591323422363617</v>
+        <v>0.4569647478958516</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2222312477168732</v>
+        <v>0.2224918903625916</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1406519578945844</v>
+        <v>0.1408843185621853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.22749631387835</v>
+        <v>0.2268464977982223</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2577356321542648</v>
+        <v>0.256506087768244</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1676621804853577</v>
+        <v>0.1697570491605437</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.26020313720249</v>
+        <v>0.2600475046104004</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>123412</v>
+        <v>123065</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>46552</v>
+        <v>48010</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27475</v>
+        <v>26930</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>169804</v>
+        <v>169307</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>77363</v>
+        <v>80301</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>48118</v>
+        <v>47735</v>
       </c>
     </row>
     <row r="8">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>166209</v>
+        <v>165847</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>105293</v>
+        <v>106296</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>81565</v>
+        <v>81608</v>
       </c>
     </row>
     <row r="11">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>219481</v>
+        <v>214807</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>147226</v>
+        <v>149375</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>115152</v>
+        <v>113911</v>
       </c>
     </row>
     <row r="12">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>161353</v>
+        <v>158704</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>97104</v>
+        <v>95114</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>131488</v>
+        <v>131249</v>
       </c>
     </row>
     <row r="15">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>208845</v>
+        <v>211250</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>133751</v>
+        <v>133809</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>166736</v>
+        <v>166487</v>
       </c>
     </row>
     <row r="16">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>114319</v>
+        <v>117696</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>105642</v>
+        <v>104372</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>208433</v>
+        <v>206678</v>
       </c>
     </row>
     <row r="19">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>152701</v>
+        <v>154540</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>145086</v>
+        <v>143373</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>249154</v>
+        <v>247977</v>
       </c>
     </row>
     <row r="20">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>606315</v>
+        <v>607026</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>388316</v>
+        <v>388958</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>474690</v>
+        <v>473334</v>
       </c>
     </row>
     <row r="23">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>703181</v>
+        <v>699827</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>462887</v>
+        <v>468671</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>542935</v>
+        <v>542610</v>
       </c>
     </row>
     <row r="24">
